--- a/classfiers/chain/svm/chain-svm-default-results.xlsx
+++ b/classfiers/chain/svm/chain-svm-default-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9695652173913043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
         <v>0.982608695652174</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8100436681222707</v>
+        <v>0.9855072463768116</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4599708879184862</v>
+        <v>0.9797101449275362</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02765647743813685</v>
+        <v>0.9927536231884059</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6499689893044744</v>
+        <v>0.9881159420289855</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/chain-svm-default-results.xlsx
+++ b/classfiers/chain/svm/chain-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.8011538461538461</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E3" t="n">
-        <v>0.982608695652174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9961345187475841</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9797101449275362</v>
+        <v>0.98375</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9927536231884059</v>
+        <v>0.9925</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4</v>
+        <v>0.6268292682926829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3730769230769231</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.346749226006192</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9881159420289855</v>
+        <v>0.954707672980286</v>
       </c>
     </row>
   </sheetData>
